--- a/document/01_設計書/【技術研修】画面イメージ.xlsx
+++ b/document/01_設計書/【技術研修】画面イメージ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kentaro\Desktop\最新版\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AC9A34-C202-410B-B45E-1A4D8E321D6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790ADE84-E4DC-4C6B-B5E7-4FAB447ED622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A73AC4CA-4D16-4018-BA0C-24142C8CDE28}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="ファイル変換" sheetId="6" r:id="rId2"/>
     <sheet name="DB関連（データ取得）" sheetId="7" r:id="rId3"/>
     <sheet name="エビデンス成型" sheetId="8" r:id="rId4"/>
-    <sheet name="一括機能" sheetId="9" r:id="rId5"/>
+    <sheet name="連動機能" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>①ファイル変換の場合</t>
     <rPh sb="5" eb="7">
@@ -107,6 +107,19 @@
   </si>
   <si>
     <t>２：EXCELファイル</t>
+  </si>
+  <si>
+    <t>⑨連動機能の場合</t>
+    <rPh sb="1" eb="3">
+      <t>レンドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -6119,10 +6132,10 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>変換したファイル名をメニュー画面に表示する？</a:t>
+            <a:t>変換したファイル名をメニュー画面に表示する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8096,10 +8109,10 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>メニュー画面に表示する？</a:t>
+            <a:t>対象をメニュー画面に表示する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8171,7 +8184,7 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>TSV</a:t>
@@ -8179,10 +8192,10 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ファイルも対象？</a:t>
+            <a:t>ファイルも対象</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9035,7 +9048,7 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>TSV</a:t>
@@ -9043,7 +9056,7 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>⇒</a:t>
@@ -9051,7 +9064,7 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>EXCEL</a:t>
@@ -9059,11 +9072,134 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ファイル出力対象？</a:t>
-          </a:r>
+            <a:t>ファイル出力対象</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>20170</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>55630</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="四角形: 角を丸くする 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AF0EA6C-B036-45DA-9730-00D75A9AF270}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="734785" y="8504464"/>
+          <a:ext cx="2687171" cy="613523"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メニュー画面に戻ります</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>378600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>12806</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="矢印: 下 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D1824EA-0FFD-40F8-B0FB-67FFFAE9A750}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1537607" y="7783285"/>
+          <a:ext cx="882064" cy="557092"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9371,7 +9507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{975B4D60-F2DE-4781-8E4A-78661D1D1631}">
   <dimension ref="B20:B207"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -9395,7 +9531,7 @@
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B207" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -9410,7 +9546,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2D9ECD-B494-4502-826B-F51AF4729ED5}">
   <dimension ref="E14:I25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -9487,7 +9625,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D00D8BC-3E16-40FE-BBFF-91E5695C8CE3}">
   <dimension ref="E14:I25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
